--- a/mf-intelligence/data/processed/quant/quant_Healthcare_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Healthcare_Fund_Equity_Holdings_Comparison.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE059A01026</t>
+          <t>INE807F01027</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cipla Limited</t>
+          <t>Sequent Scientific Limited</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10.010286</v>
+        <v>8.831270999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.50142</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.719996999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>10.010286</v>
+        <v>0.3298509999999997</v>
       </c>
       <c r="H2" t="n">
-        <v>10.010286</v>
+        <v>0.1112739999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE812G01025</t>
+          <t>INE768C01028</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SMS Pharmaceuticals Limited</t>
+          <t>Zydus Wellness Ltd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,30 +524,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.582952000000001</v>
+        <v>8.447488999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>9.657165000000001</v>
+        <v>8.051306</v>
       </c>
       <c r="F3" t="n">
-        <v>6.526537</v>
+        <v>7.297499</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.07421300000000031</v>
+        <v>0.3961829999999988</v>
       </c>
       <c r="H3" t="n">
-        <v>3.056415</v>
+        <v>1.149989999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INE807F01027</t>
+          <t>INE812G01025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sequent Scientific Limited</t>
+          <t>SMS Pharmaceuticals Limited</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8.50142</v>
+        <v>8.441843</v>
       </c>
       <c r="E4" t="n">
-        <v>8.719996999999999</v>
+        <v>9.582952000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>8.256270000000001</v>
+        <v>9.657165000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2185769999999998</v>
+        <v>-1.141109</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2451499999999989</v>
+        <v>-1.215322</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE768C01028</t>
+          <t>INE406A01037</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zydus Wellness Ltd</t>
+          <t>Aurobindo Pharma Limited</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>8.051306</v>
+        <v>7.705935</v>
       </c>
       <c r="E5" t="n">
-        <v>7.297499</v>
+        <v>7.094618</v>
       </c>
       <c r="F5" t="n">
-        <v>7.965679</v>
+        <v>7.042017</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7538070000000001</v>
+        <v>0.6113170000000006</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08562700000000056</v>
+        <v>0.6639179999999998</v>
       </c>
     </row>
     <row r="6">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
+        <v>7.241881</v>
+      </c>
+      <c r="E6" t="n">
         <v>7.604171</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>7.852396</v>
       </c>
-      <c r="F6" t="n">
-        <v>7.887981</v>
-      </c>
       <c r="G6" t="n">
-        <v>-0.2482249999999997</v>
+        <v>-0.3622899999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.2838099999999999</v>
+        <v>-0.6105149999999995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE406A01037</t>
+          <t>INE03Q201024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aurobindo Pharma Limited</t>
+          <t>Alivus Life Sciences</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7.094618</v>
+        <v>6.950458</v>
       </c>
       <c r="E7" t="n">
-        <v>7.042017</v>
+        <v>6.230534</v>
       </c>
       <c r="F7" t="n">
-        <v>6.445576</v>
+        <v>5.846258</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05260099999999923</v>
+        <v>0.7199240000000007</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6490419999999997</v>
+        <v>1.104200000000001</v>
       </c>
     </row>
     <row r="8">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>6.425974</v>
+      </c>
+      <c r="E8" t="n">
         <v>6.601</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>6.302559</v>
       </c>
-      <c r="F8" t="n">
-        <v>6.505723</v>
-      </c>
       <c r="G8" t="n">
-        <v>0.2984410000000004</v>
+        <v>-0.1750259999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09527700000000028</v>
+        <v>0.1234150000000005</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE03Q201024</t>
+          <t>INE0CZ201020</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Alivus Life Sciences</t>
+          <t>ANTHEM BIOSCIENCES LIMITED</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.230534</v>
+        <v>5.869715</v>
       </c>
       <c r="E9" t="n">
-        <v>5.846258</v>
+        <v>5.997429</v>
       </c>
       <c r="F9" t="n">
-        <v>5.801788</v>
+        <v>5.592856</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3842759999999998</v>
+        <v>-0.1277140000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4287459999999994</v>
+        <v>0.276859</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE0CZ201020</t>
+          <t>INE423A01024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ANTHEM BIOSCIENCES LIMITED</t>
+          <t>Adani Enterprises Limited</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5.997429</v>
+        <v>5.635718</v>
       </c>
       <c r="E10" t="n">
-        <v>5.592856</v>
+        <v>5.871914</v>
       </c>
       <c r="F10" t="n">
-        <v>6.16882</v>
+        <v>5.722387</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4045730000000001</v>
+        <v>-0.2361960000000005</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1713909999999998</v>
+        <v>-0.08666900000000055</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE423A01024</t>
+          <t>INE361B01024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited</t>
+          <t>Divi's Laboratories Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5.871914</v>
+        <v>3.628896</v>
       </c>
       <c r="E11" t="n">
-        <v>5.722387</v>
+        <v>3.603264</v>
       </c>
       <c r="F11" t="n">
-        <v>6.138305</v>
+        <v>3.494731</v>
       </c>
       <c r="G11" t="n">
-        <v>0.149527</v>
+        <v>0.02563200000000032</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.2663909999999996</v>
+        <v>0.1341650000000003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE775A01035</t>
+          <t>INE804L01022</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Samvardhana Motherson International Ltd</t>
+          <t>Medplus Health Services Limited</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4.091851</v>
+        <v>3.520651</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -821,21 +821,21 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>4.091851</v>
+        <v>3.520651</v>
       </c>
       <c r="H12" t="n">
-        <v>4.091851</v>
+        <v>3.520651</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE361B01024</t>
+          <t>INE338H01029</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Divi's Laboratories Limited</t>
+          <t>Concord Biotech Limited</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,30 +844,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.603264</v>
+        <v>2.880442</v>
       </c>
       <c r="E13" t="n">
-        <v>3.494731</v>
+        <v>3.099855</v>
       </c>
       <c r="F13" t="n">
-        <v>3.584167</v>
+        <v>3.126033</v>
       </c>
       <c r="G13" t="n">
-        <v>0.108533</v>
+        <v>-0.2194129999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01909699999999992</v>
+        <v>-0.2455910000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE338H01029</t>
+          <t>INE068V01023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Concord Biotech Limited</t>
+          <t>Gland Pharma Limited</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3.099855</v>
+        <v>1.52235</v>
       </c>
       <c r="E14" t="n">
-        <v>3.126033</v>
+        <v>1.334298</v>
       </c>
       <c r="F14" t="n">
-        <v>3.138804</v>
+        <v>1.305113</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02617800000000026</v>
+        <v>0.1880520000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.03894900000000012</v>
+        <v>0.2172370000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE068V01023</t>
+          <t>INE044A01036</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Gland Pharma Limited</t>
+          <t>Sun Pharmaceutical Industries Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,30 +908,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.334298</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.305113</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.410462</v>
+        <v>4.800678</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02918500000000002</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.07616400000000012</v>
+        <v>-4.800678</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE326A01037</t>
+          <t>INE423A20016</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lupin Limited</t>
+          <t>Adani Enterprises Limited Rights</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -946,24 +946,24 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2.913663</v>
+        <v>0.133224</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.913663</v>
+        <v>-0.133224</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE044A01036</t>
+          <t>INE484J01027</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sun Pharmaceutical Industries Limited</t>
+          <t>Godrej Properties Limited</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -975,27 +975,27 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>4.800678</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>3.401542</v>
+        <v>2.626417</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.800678</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.401542</v>
+        <v>-2.626417</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE775A01035</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>Samvardhana Motherson International Ltd</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1007,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.133224</v>
+        <v>4.091851</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.133224</v>
+        <v>-4.091851</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,12 +1022,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE484J01027</t>
+          <t>INE059A01026</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Godrej Properties Limited</t>
+          <t>Cipla Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1039,16 +1039,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.626417</v>
+        <v>10.010286</v>
       </c>
       <c r="F19" t="n">
-        <v>2.801618</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.626417</v>
+        <v>-10.010286</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.801618</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Healthcare_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Healthcare_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,20 +496,25 @@
           <t>quant Healthcare Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>8.831270999999999</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>8.50142</v>
       </c>
-      <c r="F2" t="n">
-        <v>8.719996999999999</v>
-      </c>
       <c r="G2" t="n">
+        <v>8.256270000000001</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.3298509999999997</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.1112739999999999</v>
+      <c r="I2" t="n">
+        <v>0.5750009999999985</v>
       </c>
     </row>
     <row r="3">
@@ -523,20 +533,25 @@
           <t>quant Healthcare Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>8.447488999999999</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>8.051306</v>
       </c>
-      <c r="F3" t="n">
-        <v>7.297499</v>
-      </c>
       <c r="G3" t="n">
+        <v>7.965679</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3961829999999988</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.149989999999999</v>
+      <c r="I3" t="n">
+        <v>0.4818099999999994</v>
       </c>
     </row>
     <row r="4">
@@ -555,20 +570,25 @@
           <t>quant Healthcare Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>8.441843</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>9.582952000000001</v>
       </c>
-      <c r="F4" t="n">
-        <v>9.657165000000001</v>
-      </c>
       <c r="G4" t="n">
+        <v>6.526537</v>
+      </c>
+      <c r="H4" t="n">
         <v>-1.141109</v>
       </c>
-      <c r="H4" t="n">
-        <v>-1.215322</v>
+      <c r="I4" t="n">
+        <v>1.915306</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant Healthcare Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>7.705935</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>7.094618</v>
       </c>
-      <c r="F5" t="n">
-        <v>7.042017</v>
-      </c>
       <c r="G5" t="n">
+        <v>6.445576</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.6113170000000006</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.6639179999999998</v>
+      <c r="I5" t="n">
+        <v>1.260359</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant Healthcare Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>7.241881</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>7.604171</v>
       </c>
-      <c r="F6" t="n">
-        <v>7.852396</v>
-      </c>
       <c r="G6" t="n">
+        <v>7.887981</v>
+      </c>
+      <c r="H6" t="n">
         <v>-0.3622899999999998</v>
       </c>
-      <c r="H6" t="n">
-        <v>-0.6105149999999995</v>
+      <c r="I6" t="n">
+        <v>-0.6460999999999997</v>
       </c>
     </row>
     <row r="7">
@@ -651,20 +681,25 @@
           <t>quant Healthcare Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>6.950458</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>6.230534</v>
       </c>
-      <c r="F7" t="n">
-        <v>5.846258</v>
-      </c>
       <c r="G7" t="n">
+        <v>5.801788</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.7199240000000007</v>
       </c>
-      <c r="H7" t="n">
-        <v>1.104200000000001</v>
+      <c r="I7" t="n">
+        <v>1.14867</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant Healthcare Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>6.425974</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>6.601</v>
       </c>
-      <c r="F8" t="n">
-        <v>6.302559</v>
-      </c>
       <c r="G8" t="n">
+        <v>6.505723</v>
+      </c>
+      <c r="H8" t="n">
         <v>-0.1750259999999999</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.1234150000000005</v>
+      <c r="I8" t="n">
+        <v>-0.07974899999999963</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant Healthcare Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>5.869715</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>5.997429</v>
       </c>
-      <c r="F9" t="n">
-        <v>5.592856</v>
-      </c>
       <c r="G9" t="n">
+        <v>6.16882</v>
+      </c>
+      <c r="H9" t="n">
         <v>-0.1277140000000001</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.276859</v>
+      <c r="I9" t="n">
+        <v>-0.299105</v>
       </c>
     </row>
     <row r="10">
@@ -747,20 +792,25 @@
           <t>quant Healthcare Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>5.635718</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>5.871914</v>
       </c>
-      <c r="F10" t="n">
-        <v>5.722387</v>
-      </c>
       <c r="G10" t="n">
+        <v>6.138305</v>
+      </c>
+      <c r="H10" t="n">
         <v>-0.2361960000000005</v>
       </c>
-      <c r="H10" t="n">
-        <v>-0.08666900000000055</v>
+      <c r="I10" t="n">
+        <v>-0.5025870000000001</v>
       </c>
     </row>
     <row r="11">
@@ -779,20 +829,25 @@
           <t>quant Healthcare Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>3.628896</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3.603264</v>
       </c>
-      <c r="F11" t="n">
-        <v>3.494731</v>
-      </c>
       <c r="G11" t="n">
+        <v>3.584167</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.02563200000000032</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.1341650000000003</v>
+      <c r="I11" t="n">
+        <v>0.04472900000000024</v>
       </c>
     </row>
     <row r="12">
@@ -811,21 +866,26 @@
           <t>quant Healthcare Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>3.520651</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3.520651</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>3.520651</v>
       </c>
+      <c r="I12" t="n">
+        <v>3.520651</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -843,20 +903,25 @@
           <t>quant Healthcare Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>2.880442</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>3.099855</v>
       </c>
-      <c r="F13" t="n">
-        <v>3.126033</v>
-      </c>
       <c r="G13" t="n">
+        <v>3.138804</v>
+      </c>
+      <c r="H13" t="n">
         <v>-0.2194129999999999</v>
       </c>
-      <c r="H13" t="n">
-        <v>-0.2455910000000001</v>
+      <c r="I13" t="n">
+        <v>-0.258362</v>
       </c>
     </row>
     <row r="14">
@@ -875,31 +940,36 @@
           <t>quant Healthcare Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>1.52235</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.334298</v>
       </c>
-      <c r="F14" t="n">
-        <v>1.305113</v>
-      </c>
       <c r="G14" t="n">
+        <v>1.410462</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.1880520000000001</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.2172370000000001</v>
+      <c r="I14" t="n">
+        <v>0.111888</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE044A01036</t>
+          <t>INE326A01037</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sun Pharmaceutical Industries Limited</t>
+          <t>Lupin Limited</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -907,31 +977,36 @@
           <t>quant Healthcare Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4.800678</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.913663</v>
       </c>
       <c r="H15" t="n">
-        <v>-4.800678</v>
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-2.913663</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE044A01036</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>Sun Pharmaceutical Industries Limited</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -939,20 +1014,25 @@
           <t>quant Healthcare Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.133224</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.401542</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.133224</v>
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-3.401542</v>
       </c>
     </row>
     <row r="17">
@@ -971,20 +1051,25 @@
           <t>quant Healthcare Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.626417</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.801618</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.626417</v>
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-2.801618</v>
       </c>
     </row>
     <row r="18">
@@ -1003,19 +1088,24 @@
           <t>quant Healthcare Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>4.091851</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>-4.091851</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1035,19 +1125,24 @@
           <t>quant Healthcare Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>10.010286</v>
       </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>-10.010286</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>

--- a/mf-intelligence/data/processed/quant/quant_Healthcare_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Healthcare_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Healthcare Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Healthcare Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>8.831270999999999</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>8.50142</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>8.256270000000001</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0.3298509999999997</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.5750009999999985</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Healthcare Fund</t>
+          <t>Food Products</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Healthcare Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>8.447488999999999</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>8.051306</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>7.965679</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.3961829999999988</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.4818099999999994</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Healthcare Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Healthcare Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8.441843</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>9.582952000000001</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>6.526537</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>-1.141109</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>1.915306</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Healthcare Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Healthcare Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>7.705935</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>7.094618</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>6.445576</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0.6113170000000006</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>1.260359</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Healthcare Fund</t>
+          <t>Healthcare Services</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Healthcare Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>7.241881</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>7.604171</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>7.887981</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-0.3622899999999998</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>-0.6460999999999997</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Healthcare Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Healthcare Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>6.950458</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>6.230534</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>5.801788</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0.7199240000000007</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>1.14867</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Healthcare Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Healthcare Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>6.425974</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>6.601</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>6.505723</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>-0.1750259999999999</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>-0.07974899999999963</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Healthcare Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Healthcare Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>5.869715</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>5.997429</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>6.16882</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>-0.1277140000000001</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>-0.299105</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Healthcare Fund</t>
+          <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Healthcare Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>5.635718</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>5.871914</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>6.138305</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>-0.2361960000000005</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>-0.5025870000000001</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Healthcare Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Healthcare Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>3.628896</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>3.603264</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>3.584167</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.02563200000000032</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>0.04472900000000024</v>
       </c>
     </row>
@@ -863,29 +918,34 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Healthcare Fund</t>
+          <t>Retailing</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Healthcare Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>3.520651</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>3.520651</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>3.520651</v>
       </c>
+      <c r="J12" t="n">
+        <v>3.520651</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Healthcare Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Healthcare Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.880442</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>3.099855</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>3.138804</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>-0.2194129999999999</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>-0.258362</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Healthcare Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Healthcare Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.52235</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>1.334298</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>1.410462</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>0.1880520000000001</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>0.111888</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Healthcare Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Healthcare Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>2.913663</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>-2.913663</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Healthcare Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Healthcare Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>3.401542</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>-3.401542</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Healthcare Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Healthcare Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>2.801618</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>-2.801618</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Healthcare Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Healthcare Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>4.091851</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>-4.091851</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Healthcare Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Healthcare Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>10.010286</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>-10.010286</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>0</v>
       </c>
     </row>
